--- a/figtable/supp/Table_S3.xlsx
+++ b/figtable/supp/Table_S3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b7c4edc1d693829/Documents/Univ/PostToJEB/figtable/supp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro.t/Seedsize_associated_matingsystem/figtable/supp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{7BD0015F-859B-FB47-A2C3-99ED424E06EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CD541331-848E-904D-B47B-9954904D17B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90691E9B-1B53-0F42-A2EE-AB62E3AD6E5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="4060" windowWidth="27900" windowHeight="16940" xr2:uid="{07C1F4D9-91BD-2A46-80A9-695F7D34C7CB}"/>
+    <workbookView xWindow="0" yWindow="1360" windowWidth="27900" windowHeight="16940" xr2:uid="{07C1F4D9-91BD-2A46-80A9-695F7D34C7CB}"/>
   </bookViews>
   <sheets>
     <sheet name="S3" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="18">
-  <si>
-    <t>growth-form:herb</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="17">
   <si>
     <t>Family</t>
     <phoneticPr fontId="2"/>
@@ -106,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,6 +133,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -231,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6394C6F-F457-F440-9E2D-6A0A3D6BAD18}">
-  <dimension ref="A2:K52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -621,1747 +626,1750 @@
     <col min="8" max="11" width="12.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+    </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-0.189062018070696</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.11198189736537</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-0.32334502568556001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-128.853422712715</v>
+      </c>
+      <c r="I3" s="4">
+        <v>267.70684542543</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.24261746170284301</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
+        <v>-0.16227030658201699</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-0.33704736004821501</v>
+      </c>
+      <c r="G4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="7">
+        <v>-130.42948200723899</v>
+      </c>
+      <c r="I4" s="7">
+        <v>268.858964014479</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.15211858904877</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.13637748649113901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>-0.189141441966829</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-3.6986088090839898E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.112020446500429</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-0.33229962368509602</v>
+      </c>
+      <c r="G5" s="6">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
-        <v>-0.189062018070696</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.11198189736537</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>-0.32334502568556001</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-128.853422712715</v>
-      </c>
-      <c r="I5" s="4">
-        <v>267.70684542543</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.24261746170284301</v>
+      <c r="H5" s="7">
+        <v>-128.43755898161999</v>
+      </c>
+      <c r="I5" s="7">
+        <v>268.87511796323997</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.1682725378101999</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.13528040553824899</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="7">
-        <v>-0.16227030658201699</v>
+        <v>-0.16929750670782301</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.105371058122101</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7.2298893366817593E-2</v>
       </c>
       <c r="F6" s="7">
-        <v>-0.33704736004821501</v>
+        <v>-0.33222451378708701</v>
       </c>
       <c r="G6" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="7">
-        <v>-130.42948200723899</v>
+        <v>-128.525243100072</v>
       </c>
       <c r="I6" s="7">
-        <v>268.858964014479</v>
+        <v>269.05048620014401</v>
       </c>
       <c r="J6" s="7">
-        <v>1.15211858904877</v>
+        <v>1.34364077471423</v>
       </c>
       <c r="K6" s="7">
-        <v>0.13637748649113901</v>
+        <v>0.123923641789023</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.189141441966829</v>
-      </c>
-      <c r="C7" s="7">
-        <v>-3.6986088090839898E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.112020446500429</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>-0.139256881902731</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9.1495751003498799E-2</v>
       </c>
       <c r="F7" s="7">
-        <v>-0.33229962368509602</v>
+        <v>-0.34725798192115498</v>
       </c>
       <c r="G7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="7">
-        <v>-128.43755898161999</v>
+        <v>-129.908575772581</v>
       </c>
       <c r="I7" s="7">
-        <v>268.87511796323997</v>
+        <v>269.81715154516201</v>
       </c>
       <c r="J7" s="7">
-        <v>1.1682725378101999</v>
+        <v>2.11030611973155</v>
       </c>
       <c r="K7" s="7">
-        <v>0.13528040553824899</v>
+        <v>8.4464633762234495E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.16929750670782301</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.105371058122101</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7.2298893366817593E-2</v>
+        <v>-0.16232360696447101</v>
+      </c>
+      <c r="C8" s="7">
+        <v>-3.65575497449806E-2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F8" s="7">
-        <v>-0.33222451378708701</v>
+        <v>-0.34588258276938</v>
       </c>
       <c r="G8" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="7">
-        <v>-128.525243100072</v>
+        <v>-130.03414415398001</v>
       </c>
       <c r="I8" s="7">
-        <v>269.05048620014401</v>
+        <v>270.06828830795899</v>
       </c>
       <c r="J8" s="7">
-        <v>1.34364077471423</v>
+        <v>2.3614428825290501</v>
       </c>
       <c r="K8" s="7">
-        <v>0.123923641789023</v>
+        <v>7.4497422688050902E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.139256881902731</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>-0.16783770763740699</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-3.9362873008547697E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.10489154255628499</v>
       </c>
       <c r="E9" s="7">
-        <v>9.1495751003498799E-2</v>
+        <v>7.7918332950525596E-2</v>
       </c>
       <c r="F9" s="7">
-        <v>-0.34725798192115498</v>
+        <v>-0.342449511494824</v>
       </c>
       <c r="G9" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" s="7">
-        <v>-129.908575772581</v>
+        <v>-128.05314312285199</v>
       </c>
       <c r="I9" s="7">
-        <v>269.81715154516201</v>
+        <v>270.10628624570398</v>
       </c>
       <c r="J9" s="7">
-        <v>2.11030611973155</v>
+        <v>2.3994408202736999</v>
       </c>
       <c r="K9" s="7">
-        <v>8.4464633762234495E-2</v>
+        <v>7.3095409052454902E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>-0.16232360696447101</v>
+        <v>-0.13790165832686099</v>
       </c>
       <c r="C10" s="7">
-        <v>-3.65575497449806E-2</v>
+        <v>-3.9556282025060903E-2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9.7076217333093698E-2</v>
       </c>
       <c r="F10" s="7">
-        <v>-0.34588258276938</v>
+        <v>-0.35745848941366698</v>
       </c>
       <c r="G10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="7">
-        <v>-130.03414415398001</v>
+        <v>-129.44298862739299</v>
       </c>
       <c r="I10" s="7">
-        <v>270.06828830795899</v>
+        <v>270.88597725478502</v>
       </c>
       <c r="J10" s="7">
-        <v>2.3614428825290501</v>
+        <v>3.1791318293548998</v>
       </c>
       <c r="K10" s="7">
-        <v>7.4497422688050902E-2</v>
+        <v>4.9497395725419099E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>-0.16783770763740699</v>
-      </c>
-      <c r="C11" s="7">
-        <v>-3.9362873008547697E-2</v>
+        <v>-0.35112124374352799</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>0.10489154255628499</v>
-      </c>
-      <c r="E11" s="7">
-        <v>7.7918332950525596E-2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>-0.342449511494824</v>
+        <v>0.12288402040849</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G11" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H11" s="7">
-        <v>-128.05314312285199</v>
+        <v>-132.092030542087</v>
       </c>
       <c r="I11" s="7">
-        <v>270.10628624570398</v>
+        <v>272.18406108417298</v>
       </c>
       <c r="J11" s="7">
-        <v>2.3994408202736999</v>
+        <v>4.47721565874315</v>
       </c>
       <c r="K11" s="7">
-        <v>7.3095409052454902E-2</v>
+        <v>2.5864675097118199E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7">
-        <v>-0.13790165832686099</v>
-      </c>
-      <c r="C12" s="7">
-        <v>-3.9556282025060903E-2</v>
+        <v>-0.32925544171578502</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7">
-        <v>9.7076217333093698E-2</v>
-      </c>
-      <c r="F12" s="7">
-        <v>-0.35745848941366698</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12" s="7">
-        <v>-129.44298862739299</v>
+        <v>-133.86140572565401</v>
       </c>
       <c r="I12" s="7">
-        <v>270.88597725478502</v>
+        <v>273.72281145130802</v>
       </c>
       <c r="J12" s="7">
-        <v>3.1791318293548998</v>
+        <v>6.0159660258782397</v>
       </c>
       <c r="K12" s="7">
-        <v>4.9497395725419099E-2</v>
+        <v>1.19831675189677E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>-0.35112124374352799</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
+        <v>-0.35456322876895902</v>
+      </c>
+      <c r="C13" s="7">
+        <v>-2.7872488041845798E-2</v>
       </c>
       <c r="D13" s="7">
-        <v>0.12288402040849</v>
+        <v>0.123110263331071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="7">
-        <v>-132.092030542087</v>
+        <v>-131.87102026855499</v>
       </c>
       <c r="I13" s="7">
-        <v>272.18406108417298</v>
+        <v>273.74204053710901</v>
       </c>
       <c r="J13" s="7">
-        <v>4.47721565874315</v>
+        <v>6.0351951116789504</v>
       </c>
       <c r="K13" s="7">
-        <v>2.5864675097118199E-2</v>
+        <v>1.18685069286189E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7">
-        <v>-0.32925544171578502</v>
+        <v>-0.34015470960276001</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.11836717618871501</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5.1854542985482602E-2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="7">
-        <v>-133.86140572565401</v>
+        <v>-131.93389310944201</v>
       </c>
       <c r="I14" s="7">
-        <v>273.72281145130802</v>
+        <v>273.867786218883</v>
       </c>
       <c r="J14" s="7">
-        <v>6.0159660258782397</v>
+        <v>6.1609407934533396</v>
       </c>
       <c r="K14" s="7">
-        <v>1.19831675189677E-2</v>
+        <v>1.11452742561448E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="7">
-        <v>-0.35456322876895902</v>
-      </c>
-      <c r="C15" s="7">
-        <v>-2.7872488041845798E-2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.123110263331071</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>-0.31506405389192799</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7.2421254955367706E-2</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="7">
-        <v>-131.87102026855499</v>
+        <v>-133.557409589934</v>
       </c>
       <c r="I15" s="7">
-        <v>273.74204053710901</v>
+        <v>275.11481917986703</v>
       </c>
       <c r="J15" s="7">
-        <v>6.0351951116789504</v>
+        <v>7.4079737544373598</v>
       </c>
       <c r="K15" s="7">
-        <v>1.18685069286189E-2</v>
+        <v>5.9744921240250199E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7">
-        <v>-0.34015470960276001</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.11836717618871501</v>
-      </c>
-      <c r="E16" s="7">
-        <v>5.1854542985482602E-2</v>
+        <v>-0.332532631195262</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-2.70410304207288E-2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="7">
-        <v>-131.93389310944201</v>
+        <v>-133.659700425013</v>
       </c>
       <c r="I16" s="7">
-        <v>273.867786218883</v>
+        <v>275.319400850026</v>
       </c>
       <c r="J16" s="7">
-        <v>6.1609407934533396</v>
+        <v>7.6125554245954303</v>
       </c>
       <c r="K16" s="7">
-        <v>1.11452742561448E-2</v>
+        <v>5.3935740755350599E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="7">
-        <v>-0.31506405389192799</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
+        <v>-0.34299951850135602</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-2.9350435019460702E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.118280851301722</v>
       </c>
       <c r="E17" s="7">
-        <v>7.2421254955367706E-2</v>
+        <v>5.5526439757449197E-2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" s="7">
-        <v>-133.557409589934</v>
+        <v>-131.688933901117</v>
       </c>
       <c r="I17" s="7">
-        <v>275.11481917986703</v>
+        <v>275.37786780223303</v>
       </c>
       <c r="J17" s="7">
-        <v>7.4079737544373598</v>
+        <v>7.6710223768029699</v>
       </c>
       <c r="K17" s="7">
-        <v>5.9744921240250199E-3</v>
+        <v>5.2381835258339003E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="7">
-        <v>-0.332532631195262</v>
+        <v>-0.31787590067562699</v>
       </c>
       <c r="C18" s="7">
-        <v>-2.70410304207288E-2</v>
+        <v>-2.9115283579349401E-2</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>7.6068561670354307E-2</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-133.32308035136001</v>
+      </c>
+      <c r="I18" s="7">
+        <v>276.64616070272001</v>
+      </c>
+      <c r="J18" s="7">
+        <v>8.9393152772899498</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2.7782697243441501E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="5" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="B19" s="9">
+        <v>4.3608036832233299E-2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.326783267181953</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-0.91153806290647998</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>-83.205977445580203</v>
+      </c>
+      <c r="I19" s="9">
+        <v>176.41195489116001</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.334440806010392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="B20" s="11">
+        <v>5.1746562464540603E-2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>8.8716617077929202E-2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.32110909215165601</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="11">
+        <v>-0.88891730965362104</v>
+      </c>
+      <c r="G20" s="10">
+        <v>6</v>
+      </c>
+      <c r="H20" s="11">
+        <v>-82.646140830497103</v>
+      </c>
+      <c r="I20" s="11">
+        <v>177.29228166099401</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.88032676983382896</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0.21535687082805399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="20" customHeight="1">
+      <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="6">
-        <v>4</v>
-      </c>
-      <c r="H18" s="7">
-        <v>-133.659700425013</v>
-      </c>
-      <c r="I18" s="7">
-        <v>275.319400850026</v>
-      </c>
-      <c r="J18" s="7">
-        <v>7.6125554245954303</v>
-      </c>
-      <c r="K18" s="7">
-        <v>5.3935740755350599E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7">
-        <v>-0.34299951850135602</v>
-      </c>
-      <c r="C19" s="7">
-        <v>-2.9350435019460702E-2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.118280851301722</v>
-      </c>
-      <c r="E19" s="7">
-        <v>5.5526439757449197E-2</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="B21" s="11">
+        <v>4.6541202524761002E-2</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.33173809800131598</v>
+      </c>
+      <c r="E21" s="11">
+        <v>-4.6994049336018001E-2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>-0.92079360787215203</v>
+      </c>
+      <c r="G21" s="10">
         <v>6</v>
       </c>
-      <c r="H19" s="7">
-        <v>-131.688933901117</v>
-      </c>
-      <c r="I19" s="7">
-        <v>275.37786780223303</v>
-      </c>
-      <c r="J19" s="7">
-        <v>7.6710223768029699</v>
-      </c>
-      <c r="K19" s="7">
-        <v>5.2381835258339003E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="7">
-        <v>-0.31787590067562699</v>
-      </c>
-      <c r="C20" s="7">
-        <v>-2.9115283579349401E-2</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="7">
-        <v>7.6068561670354307E-2</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="6">
-        <v>5</v>
-      </c>
-      <c r="H20" s="7">
-        <v>-133.32308035136001</v>
-      </c>
-      <c r="I20" s="7">
-        <v>276.64616070272001</v>
-      </c>
-      <c r="J20" s="7">
-        <v>8.9393152772899498</v>
-      </c>
-      <c r="K20" s="7">
-        <v>2.7782697243441501E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="9">
-        <v>4.3608036832233299E-2</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.326783267181953</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="9">
-        <v>-0.91153806290647998</v>
-      </c>
-      <c r="G21" s="8">
-        <v>5</v>
-      </c>
-      <c r="H21" s="9">
-        <v>-83.205977445580203</v>
-      </c>
-      <c r="I21" s="9">
-        <v>176.41195489116001</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0.334440806010392</v>
+      <c r="H21" s="11">
+        <v>-83.163523255756402</v>
+      </c>
+      <c r="I21" s="11">
+        <v>178.327046511513</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1.91509162035243</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.128369662648677</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="11">
-        <v>5.1746562464540603E-2</v>
-      </c>
-      <c r="C22" s="11">
-        <v>8.8716617077929202E-2</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.32110909215165601</v>
+        <v>-3.5396081619726197E-2</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="11">
-        <v>-0.88891730965362104</v>
+        <v>-0.77651113195828603</v>
       </c>
       <c r="G22" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22" s="11">
-        <v>-82.646140830497103</v>
+        <v>-85.573712576323203</v>
       </c>
       <c r="I22" s="11">
-        <v>177.29228166099401</v>
+        <v>179.14742515264601</v>
       </c>
       <c r="J22" s="11">
-        <v>0.88032676983382896</v>
+        <v>2.7354702614858599</v>
       </c>
       <c r="K22" s="11">
-        <v>0.21535687082805399</v>
+        <v>8.5176431549862403E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="11">
-        <v>4.6541202524761002E-2</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>5.4430573328627399E-2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>8.7930260911583499E-2</v>
       </c>
       <c r="D23" s="11">
-        <v>0.33173809800131598</v>
+        <v>0.32550931823040002</v>
       </c>
       <c r="E23" s="11">
-        <v>-4.6994049336018001E-2</v>
+        <v>-4.0658388817744098E-2</v>
       </c>
       <c r="F23" s="11">
-        <v>-0.92079360787215203</v>
+        <v>-0.89720755610546699</v>
       </c>
       <c r="G23" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="11">
-        <v>-83.163523255756402</v>
+        <v>-82.613679801749498</v>
       </c>
       <c r="I23" s="11">
-        <v>178.327046511513</v>
+        <v>179.227359603499</v>
       </c>
       <c r="J23" s="11">
-        <v>1.91509162035243</v>
+        <v>2.8154047123384802</v>
       </c>
       <c r="K23" s="11">
-        <v>0.128369662648677</v>
+        <v>8.1839298101940697E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="11">
-        <v>-3.5396081619726197E-2</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>11</v>
+        <v>-2.5212539160549899E-2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>9.5776195710870898E-2</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="11">
-        <v>-0.77651113195828603</v>
+        <v>-0.75518948692430798</v>
       </c>
       <c r="G24" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="11">
-        <v>-85.573712576323203</v>
+        <v>-84.976996569072199</v>
       </c>
       <c r="I24" s="11">
-        <v>179.14742515264601</v>
+        <v>179.953993138144</v>
       </c>
       <c r="J24" s="11">
-        <v>2.7354702614858599</v>
+        <v>3.5420382469838501</v>
       </c>
       <c r="K24" s="11">
-        <v>8.5176431549862403E-2</v>
+        <v>5.6908275949153597E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="11">
-        <v>5.4430573328627399E-2</v>
-      </c>
-      <c r="C25" s="11">
-        <v>8.7930260911583499E-2</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0.32550931823040002</v>
+        <v>-3.5204472833738398E-2</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E25" s="11">
-        <v>-4.0658388817744098E-2</v>
+        <v>-4.0359357123385398E-3</v>
       </c>
       <c r="F25" s="11">
-        <v>-0.89720755610546699</v>
+        <v>-0.77711846239577897</v>
       </c>
       <c r="G25" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H25" s="11">
-        <v>-82.613679801749498</v>
+        <v>-85.573419279696495</v>
       </c>
       <c r="I25" s="11">
-        <v>179.227359603499</v>
+        <v>181.14683855939299</v>
       </c>
       <c r="J25" s="11">
-        <v>2.8154047123384802</v>
+        <v>4.7348836682325004</v>
       </c>
       <c r="K25" s="11">
-        <v>8.1839298101940697E-2</v>
+        <v>3.1343849736923203E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="11">
-        <v>-2.5212539160549899E-2</v>
+        <v>-2.5334097634071399E-2</v>
       </c>
       <c r="C26" s="11">
-        <v>9.5776195710870898E-2</v>
+        <v>9.5828837671354999E-2</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2.5988284698288001E-3</v>
       </c>
       <c r="F26" s="11">
-        <v>-0.75518948692430798</v>
+        <v>-0.75478736023039295</v>
       </c>
       <c r="G26" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="11">
-        <v>-84.976996569072199</v>
+        <v>-84.976872274042904</v>
       </c>
       <c r="I26" s="11">
-        <v>179.953993138144</v>
+        <v>181.95374454808601</v>
       </c>
       <c r="J26" s="11">
-        <v>3.5420382469838501</v>
+        <v>5.5417896569253697</v>
       </c>
       <c r="K26" s="11">
-        <v>5.6908275949153597E-2</v>
+        <v>2.09379870801897E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="11">
-        <v>-3.5204472833738398E-2</v>
+        <v>-0.37917402764065</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="11">
-        <v>-4.0359357123385398E-3</v>
-      </c>
-      <c r="F27" s="11">
-        <v>-0.77711846239577897</v>
+        <v>10</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.23366963603159299</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="G27" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="11">
-        <v>-85.573419279696495</v>
+        <v>-87.726053435142305</v>
       </c>
       <c r="I27" s="11">
-        <v>181.14683855939299</v>
+        <v>183.45210687028501</v>
       </c>
       <c r="J27" s="11">
-        <v>4.7348836682325004</v>
+        <v>7.0401519791241496</v>
       </c>
       <c r="K27" s="11">
-        <v>3.1343849736923203E-2</v>
+        <v>9.8985067432297898E-3</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="11">
-        <v>-2.5334097634071399E-2</v>
-      </c>
-      <c r="C28" s="11">
-        <v>9.5828837671354999E-2</v>
+        <v>-0.39355582648600601</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="11">
-        <v>2.5988284698288001E-3</v>
-      </c>
-      <c r="F28" s="11">
-        <v>-0.75478736023039295</v>
+        <v>10</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="G28" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H28" s="11">
-        <v>-84.976872274042904</v>
+        <v>-88.813889624515099</v>
       </c>
       <c r="I28" s="11">
-        <v>181.95374454808601</v>
+        <v>183.62777924903</v>
       </c>
       <c r="J28" s="11">
-        <v>5.5417896569253697</v>
+        <v>7.2158243578697103</v>
       </c>
       <c r="K28" s="11">
-        <v>2.09379870801897E-2</v>
+        <v>9.0661502235529195E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="11">
-        <v>-0.37917402764065</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>-0.35481150094035002</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.107816260222548</v>
       </c>
       <c r="D29" s="11">
-        <v>0.23366963603159299</v>
+        <v>0.23178566299082401</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="11">
-        <v>-87.726053435142305</v>
+        <v>-87.007283909420906</v>
       </c>
       <c r="I29" s="11">
-        <v>183.45210687028501</v>
+        <v>184.01456781884201</v>
       </c>
       <c r="J29" s="11">
-        <v>7.0401519791241496</v>
+        <v>7.6026129276814096</v>
       </c>
       <c r="K29" s="11">
-        <v>9.8985067432297898E-3</v>
+        <v>7.4719307837593204E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="11">
-        <v>-0.39355582648600601</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>-0.36916595984857298</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.110129923949709</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="11">
-        <v>-88.813889624515099</v>
+        <v>-88.097690447866299</v>
       </c>
       <c r="I30" s="11">
-        <v>183.62777924903</v>
+        <v>184.195380895733</v>
       </c>
       <c r="J30" s="11">
-        <v>7.2158243578697103</v>
+        <v>7.7834260045721599</v>
       </c>
       <c r="K30" s="11">
-        <v>9.0661502235529195E-3</v>
+        <v>6.8260549395430699E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="11">
-        <v>-0.35481150094035002</v>
-      </c>
-      <c r="C31" s="11">
-        <v>0.107816260222548</v>
+        <v>-0.37905563384267799</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="D31" s="11">
-        <v>0.23178566299082401</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>11</v>
+        <v>0.233036160123787</v>
+      </c>
+      <c r="E31" s="11">
+        <v>7.55770097908268E-3</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="10">
         <v>5</v>
       </c>
       <c r="H31" s="11">
-        <v>-87.007283909420906</v>
+        <v>-87.725110582689595</v>
       </c>
       <c r="I31" s="11">
-        <v>184.01456781884201</v>
+        <v>185.45022116537899</v>
       </c>
       <c r="J31" s="11">
-        <v>7.6026129276814096</v>
+        <v>9.0382662742188096</v>
       </c>
       <c r="K31" s="11">
-        <v>7.4719307837593204E-3</v>
+        <v>3.6448921049998602E-3</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="11">
-        <v>-0.36916595984857298</v>
-      </c>
-      <c r="C32" s="11">
-        <v>0.110129923949709</v>
+        <v>-0.39303645741778798</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E32" s="11">
+        <v>3.2236555961272798E-2</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="10">
         <v>4</v>
       </c>
       <c r="H32" s="11">
-        <v>-88.097690447866299</v>
+        <v>-88.797184362046593</v>
       </c>
       <c r="I32" s="11">
-        <v>184.195380895733</v>
+        <v>185.59436872409299</v>
       </c>
       <c r="J32" s="11">
-        <v>7.7834260045721599</v>
+        <v>9.1824138329327791</v>
       </c>
       <c r="K32" s="11">
-        <v>6.8260549395430699E-3</v>
+        <v>3.39143448851421E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="11">
-        <v>-0.37905563384267799</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>-0.35464178593114498</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.10798271901473901</v>
       </c>
       <c r="D33" s="11">
-        <v>0.233036160123787</v>
+        <v>0.23067949380910699</v>
       </c>
       <c r="E33" s="11">
-        <v>7.55770097908268E-3</v>
+        <v>1.27878831074783E-2</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33" s="11">
-        <v>-87.725110582689595</v>
+        <v>-87.004521541389906</v>
       </c>
       <c r="I33" s="11">
-        <v>185.45022116537899</v>
+        <v>186.00904308278001</v>
       </c>
       <c r="J33" s="11">
-        <v>9.0382662742188096</v>
+        <v>9.5970881916193207</v>
       </c>
       <c r="K33" s="11">
-        <v>3.6448921049998602E-3</v>
+        <v>2.7563733319542001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20" customHeight="1">
       <c r="A34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="11">
+        <v>-0.368539295750762</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.11070057243418201</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="11">
+        <v>3.7980909038983102E-2</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="10">
+        <v>5</v>
+      </c>
+      <c r="H34" s="11">
+        <v>-88.073957496282503</v>
+      </c>
+      <c r="I34" s="11">
+        <v>186.14791499256501</v>
+      </c>
+      <c r="J34" s="11">
+        <v>9.7359601014046007</v>
+      </c>
+      <c r="K34" s="11">
+        <v>2.5714754792538698E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="5" customFormat="1" ht="20" customHeight="1">
+      <c r="A35" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="11">
-        <v>-0.39303645741778798</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="11">
-        <v>3.2236555961272798E-2</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="10">
-        <v>4</v>
-      </c>
-      <c r="H34" s="11">
-        <v>-88.797184362046593</v>
-      </c>
-      <c r="I34" s="11">
-        <v>185.59436872409299</v>
-      </c>
-      <c r="J34" s="11">
-        <v>9.1824138329327791</v>
-      </c>
-      <c r="K34" s="11">
-        <v>3.39143448851421E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="20" customHeight="1">
-      <c r="A35" s="10" t="s">
+      <c r="B35" s="13">
+        <v>0.244573450501991</v>
+      </c>
+      <c r="C35" s="13">
+        <v>-0.17756120984447099</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="13">
+        <v>-0.262274070901858</v>
+      </c>
+      <c r="G35" s="12">
+        <v>5</v>
+      </c>
+      <c r="H35" s="13">
+        <v>-94.231187559715494</v>
+      </c>
+      <c r="I35" s="13">
+        <v>198.46237511943099</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0.405662899256446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="20" customHeight="1">
+      <c r="A36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="11">
-        <v>-0.35464178593114498</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0.10798271901473901</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0.23067949380910699</v>
-      </c>
-      <c r="E35" s="11">
-        <v>1.27878831074783E-2</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="B36" s="15">
+        <v>0.25617430509362199</v>
+      </c>
+      <c r="C36" s="15">
+        <v>-0.183876992206608</v>
+      </c>
+      <c r="D36" s="15">
+        <v>3.47146449181455E-2</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="15">
+        <v>-0.26761486756044001</v>
+      </c>
+      <c r="G36" s="14">
         <v>6</v>
       </c>
-      <c r="H35" s="11">
-        <v>-87.004521541389906</v>
-      </c>
-      <c r="I35" s="11">
-        <v>186.00904308278001</v>
-      </c>
-      <c r="J35" s="11">
-        <v>9.5970881916193207</v>
-      </c>
-      <c r="K35" s="11">
-        <v>2.7563733319542001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="20" customHeight="1">
-      <c r="A36" s="10" t="s">
+      <c r="H36" s="15">
+        <v>-93.963386379765595</v>
+      </c>
+      <c r="I36" s="15">
+        <v>199.92677275953099</v>
+      </c>
+      <c r="J36" s="15">
+        <v>1.4643976401002301</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0.195063217291951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="20" customHeight="1">
+      <c r="A37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="11">
-        <v>-0.368539295750762</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0.11070057243418201</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="11">
-        <v>3.7980909038983102E-2</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="10">
-        <v>5</v>
-      </c>
-      <c r="H36" s="11">
-        <v>-88.073957496282503</v>
-      </c>
-      <c r="I36" s="11">
-        <v>186.14791499256501</v>
-      </c>
-      <c r="J36" s="11">
-        <v>9.7359601014046007</v>
-      </c>
-      <c r="K36" s="11">
-        <v>2.5714754792538698E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" ht="20" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="13">
-        <v>0.244573450501991</v>
-      </c>
-      <c r="C37" s="13">
-        <v>-0.17756120984447099</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="13">
-        <v>-0.262274070901858</v>
-      </c>
-      <c r="G37" s="12">
-        <v>5</v>
-      </c>
-      <c r="H37" s="13">
-        <v>-94.231187559715494</v>
-      </c>
-      <c r="I37" s="13">
-        <v>198.46237511943099</v>
-      </c>
-      <c r="J37" s="13">
-        <v>0</v>
-      </c>
-      <c r="K37" s="13">
-        <v>0.405662899256446</v>
+      <c r="B37" s="15">
+        <v>0.244327659701293</v>
+      </c>
+      <c r="C37" s="15">
+        <v>-0.17840981849062101</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="15">
+        <v>-5.2147666156393102E-2</v>
+      </c>
+      <c r="F37" s="15">
+        <v>-0.25553003113424499</v>
+      </c>
+      <c r="G37" s="14">
+        <v>6</v>
+      </c>
+      <c r="H37" s="15">
+        <v>-94.009119934336596</v>
+      </c>
+      <c r="I37" s="15">
+        <v>200.01823986867299</v>
+      </c>
+      <c r="J37" s="15">
+        <v>1.55586474924212</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0.18634320147404801</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="15">
-        <v>0.25617430509362199</v>
+        <v>0.25518477222629099</v>
       </c>
       <c r="C38" s="15">
-        <v>-0.183876992206608</v>
+        <v>-0.18423985104449001</v>
       </c>
       <c r="D38" s="15">
-        <v>3.47146449181455E-2</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>11</v>
+        <v>3.2416599949789598E-2</v>
+      </c>
+      <c r="E38" s="15">
+        <v>-4.7920779023223302E-2</v>
       </c>
       <c r="F38" s="15">
-        <v>-0.26761486756044001</v>
+        <v>-0.261064541364389</v>
       </c>
       <c r="G38" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H38" s="15">
-        <v>-93.963386379765595</v>
+        <v>-93.775875781390795</v>
       </c>
       <c r="I38" s="15">
-        <v>199.92677275953099</v>
+        <v>201.55175156278199</v>
       </c>
       <c r="J38" s="15">
-        <v>1.4643976401002301</v>
+        <v>3.0893764433506599</v>
       </c>
       <c r="K38" s="15">
-        <v>0.195063217291951</v>
+        <v>8.6559695356295902E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="20" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="15">
-        <v>0.244327659701293</v>
+        <v>8.2790925179614297E-2</v>
       </c>
       <c r="C39" s="15">
-        <v>-0.17840981849062101</v>
+        <v>-0.167087660852691</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="15">
-        <v>-5.2147666156393102E-2</v>
-      </c>
-      <c r="F39" s="15">
-        <v>-0.25553003113424499</v>
+        <v>10</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="G39" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H39" s="15">
-        <v>-94.009119934336596</v>
+        <v>-97.178244247197</v>
       </c>
       <c r="I39" s="15">
-        <v>200.01823986867299</v>
+        <v>202.356488494394</v>
       </c>
       <c r="J39" s="15">
-        <v>1.55586474924212</v>
+        <v>3.8941133749629802</v>
       </c>
       <c r="K39" s="15">
-        <v>0.18634320147404801</v>
+        <v>5.78854368120938E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="20" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="15">
-        <v>0.25518477222629099</v>
+        <v>8.7968607597012402E-2</v>
       </c>
       <c r="C40" s="15">
-        <v>-0.18423985104449001</v>
-      </c>
-      <c r="D40" s="15">
-        <v>3.2416599949789598E-2</v>
+        <v>-0.16858306272156501</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E40" s="15">
-        <v>-4.7920779023223302E-2</v>
-      </c>
-      <c r="F40" s="15">
-        <v>-0.261064541364389</v>
+        <v>-6.9857434938381896E-2</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="G40" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H40" s="15">
-        <v>-93.775875781390795</v>
+        <v>-96.802197850933894</v>
       </c>
       <c r="I40" s="15">
-        <v>201.55175156278199</v>
+        <v>203.60439570186799</v>
       </c>
       <c r="J40" s="15">
-        <v>3.0893764433506599</v>
+        <v>5.1420205824367402</v>
       </c>
       <c r="K40" s="15">
-        <v>8.6559695356295902E-2</v>
+        <v>3.10162799432744E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="15">
-        <v>8.2790925179614297E-2</v>
+        <v>8.9060118824087806E-2</v>
       </c>
       <c r="C41" s="15">
-        <v>-0.167087660852691</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>11</v>
+        <v>-0.17171920563147899</v>
+      </c>
+      <c r="D41" s="15">
+        <v>2.6446573389815702E-2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41" s="15">
-        <v>-97.178244247197</v>
+        <v>-97.032586209715006</v>
       </c>
       <c r="I41" s="15">
-        <v>202.356488494394</v>
+        <v>204.06517241943001</v>
       </c>
       <c r="J41" s="15">
-        <v>3.8941133749629802</v>
+        <v>5.6027972999990299</v>
       </c>
       <c r="K41" s="15">
-        <v>5.78854368120938E-2</v>
+        <v>2.4633907987186201E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="20" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="15">
-        <v>8.7968607597012402E-2</v>
+        <v>9.3341379847005801E-2</v>
       </c>
       <c r="C42" s="15">
-        <v>-0.16858306272156501</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>11</v>
+        <v>-0.172643252174107</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2.3514975053842101E-2</v>
       </c>
       <c r="E42" s="15">
-        <v>-6.9857434938381896E-2</v>
+        <v>-6.7069477742443706E-2</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H42" s="15">
-        <v>-96.802197850933894</v>
+        <v>-96.686623355508303</v>
       </c>
       <c r="I42" s="15">
-        <v>203.60439570186799</v>
+        <v>205.373246711017</v>
       </c>
       <c r="J42" s="15">
-        <v>5.1420205824367402</v>
+        <v>6.91087159158565</v>
       </c>
       <c r="K42" s="15">
-        <v>3.10162799432744E-2</v>
+        <v>1.28082144823708E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="20" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="15">
-        <v>8.9060118824087806E-2</v>
-      </c>
-      <c r="C43" s="15">
-        <v>-0.17171920563147899</v>
-      </c>
-      <c r="D43" s="15">
-        <v>2.6446573389815702E-2</v>
+        <v>0.104567934930111</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F43" s="15">
+        <v>-0.192746400941918</v>
       </c>
       <c r="G43" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" s="15">
-        <v>-97.032586209715006</v>
+        <v>-106.11566808272801</v>
       </c>
       <c r="I43" s="15">
-        <v>204.06517241943001</v>
+        <v>220.23133616545601</v>
       </c>
       <c r="J43" s="15">
-        <v>5.6027972999990299</v>
+        <v>21.768961046024799</v>
       </c>
       <c r="K43" s="15">
-        <v>2.4633907987186201E-2</v>
+        <v>7.6049341985888001E-6</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="20" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="15">
-        <v>9.3341379847005801E-2</v>
-      </c>
-      <c r="C44" s="15">
-        <v>-0.172643252174107</v>
-      </c>
-      <c r="D44" s="15">
-        <v>2.3514975053842101E-2</v>
-      </c>
-      <c r="E44" s="15">
-        <v>-6.7069477742443706E-2</v>
+        <v>-9.4691649035094898E-3</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H44" s="15">
-        <v>-96.686623355508303</v>
+        <v>-107.370077008143</v>
       </c>
       <c r="I44" s="15">
-        <v>205.373246711017</v>
+        <v>220.740154016286</v>
       </c>
       <c r="J44" s="15">
-        <v>6.91087159158565</v>
+        <v>22.2777788968552</v>
       </c>
       <c r="K44" s="15">
-        <v>1.28082144823708E-2</v>
+        <v>5.8966733202744298E-6</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="20" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="15">
-        <v>0.104567934930111</v>
+        <v>9.9842621120331806E-2</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D45" s="15">
+        <v>-2.63236262365204E-2</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="15">
-        <v>-0.192746400941918</v>
+        <v>-0.19062444069466</v>
       </c>
       <c r="G45" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45" s="15">
-        <v>-106.11566808272801</v>
+        <v>-105.990994308975</v>
       </c>
       <c r="I45" s="15">
-        <v>220.23133616545601</v>
+        <v>221.981988617951</v>
       </c>
       <c r="J45" s="15">
-        <v>21.768961046024799</v>
+        <v>23.519613498519899</v>
       </c>
       <c r="K45" s="15">
-        <v>7.6049341985888001E-6</v>
+        <v>3.16917419308525E-6</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="20" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="15">
-        <v>-9.4691649035094898E-3</v>
+        <v>0.103810879917594</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E46" s="15">
+        <v>-3.6061453645917702E-2</v>
+      </c>
+      <c r="F46" s="15">
+        <v>-0.18783589935699499</v>
       </c>
       <c r="G46" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46" s="15">
-        <v>-107.370077008143</v>
+        <v>-106.034883442428</v>
       </c>
       <c r="I46" s="15">
-        <v>220.740154016286</v>
+        <v>222.06976688485599</v>
       </c>
       <c r="J46" s="15">
-        <v>22.2777788968552</v>
+        <v>23.607391765425099</v>
       </c>
       <c r="K46" s="15">
-        <v>5.8966733202744298E-6</v>
+        <v>3.03309003557474E-6</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="20" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="15">
-        <v>9.9842621120331806E-2</v>
+        <v>-6.5283524030038302E-3</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="15">
-        <v>-2.63236262365204E-2</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="15">
-        <v>-0.19062444069466</v>
+        <v>10</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="15">
+        <v>-4.9978015011470901E-2</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47" s="15">
-        <v>-105.990994308975</v>
+        <v>-107.217802346215</v>
       </c>
       <c r="I47" s="15">
-        <v>221.981988617951</v>
+        <v>222.43560469242999</v>
       </c>
       <c r="J47" s="15">
-        <v>23.519613498519899</v>
+        <v>23.973229572998601</v>
       </c>
       <c r="K47" s="15">
-        <v>3.16917419308525E-6</v>
+        <v>2.5260656411618299E-6</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="20" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="15">
-        <v>0.103810879917594</v>
+        <v>-1.33039696040128E-2</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="15">
-        <v>-3.6061453645917702E-2</v>
-      </c>
-      <c r="F48" s="15">
-        <v>-0.18783589935699499</v>
+        <v>10</v>
+      </c>
+      <c r="D48" s="15">
+        <v>-2.9244868035821901E-2</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="G48" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" s="15">
-        <v>-106.034883442428</v>
+        <v>-107.22047535174799</v>
       </c>
       <c r="I48" s="15">
-        <v>222.06976688485599</v>
+        <v>222.44095070349599</v>
       </c>
       <c r="J48" s="15">
-        <v>23.607391765425099</v>
+        <v>23.9785755840653</v>
       </c>
       <c r="K48" s="15">
-        <v>3.03309003557474E-6</v>
+        <v>2.5193224700073401E-6</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="15">
-        <v>-6.5283524030038302E-3</v>
+        <v>9.8635089352976102E-2</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D49" s="15">
+        <v>-2.83569095541874E-2</v>
       </c>
       <c r="E49" s="15">
-        <v>-4.9978015011470901E-2</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>11</v>
+        <v>-4.02192436599128E-2</v>
+      </c>
+      <c r="F49" s="15">
+        <v>-0.18498438288566799</v>
       </c>
       <c r="G49" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H49" s="15">
-        <v>-107.217802346215</v>
+        <v>-105.890933139951</v>
       </c>
       <c r="I49" s="15">
-        <v>222.43560469242999</v>
+        <v>223.781866279903</v>
       </c>
       <c r="J49" s="15">
-        <v>23.973229572998601</v>
+        <v>25.319491160471902</v>
       </c>
       <c r="K49" s="15">
-        <v>2.5260656411618299E-6</v>
+        <v>1.28856889143219E-6</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="20" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="15">
-        <v>-1.33039696040128E-2</v>
+        <v>-1.04454948244877E-2</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="15">
-        <v>-2.9244868035821901E-2</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>11</v>
+        <v>-3.1877455732559401E-2</v>
+      </c>
+      <c r="E50" s="15">
+        <v>-5.4412056223483003E-2</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="15">
-        <v>-107.22047535174799</v>
+        <v>-107.040494980677</v>
       </c>
       <c r="I50" s="15">
-        <v>222.44095070349599</v>
+        <v>224.08098996135399</v>
       </c>
       <c r="J50" s="15">
-        <v>23.9785755840653</v>
+        <v>25.6186148419227</v>
       </c>
       <c r="K50" s="15">
-        <v>2.5193224700073401E-6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="20" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="15">
-        <v>9.8635089352976102E-2</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="15">
-        <v>-2.83569095541874E-2</v>
-      </c>
-      <c r="E51" s="15">
-        <v>-4.02192436599128E-2</v>
-      </c>
-      <c r="F51" s="15">
-        <v>-0.18498438288566799</v>
-      </c>
-      <c r="G51" s="14">
-        <v>6</v>
-      </c>
-      <c r="H51" s="15">
-        <v>-105.890933139951</v>
-      </c>
-      <c r="I51" s="15">
-        <v>223.781866279903</v>
-      </c>
-      <c r="J51" s="15">
-        <v>25.319491160471902</v>
-      </c>
-      <c r="K51" s="15">
-        <v>1.28856889143219E-6</v>
+        <v>1.10956758386271E-6</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="20" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="15">
-        <v>-1.04454948244877E-2</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="15">
-        <v>-3.1877455732559401E-2</v>
-      </c>
-      <c r="E52" s="15">
-        <v>-5.4412056223483003E-2</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="14">
-        <v>5</v>
-      </c>
-      <c r="H52" s="15">
-        <v>-107.040494980677</v>
-      </c>
-      <c r="I52" s="15">
-        <v>224.08098996135399</v>
-      </c>
-      <c r="J52" s="15">
-        <v>25.6186148419227</v>
-      </c>
-      <c r="K52" s="15">
-        <v>1.10956758386271E-6</v>
-      </c>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A52:E52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
